--- a/database_excel_files/StaffIdToCampId.xlsx
+++ b/database_excel_files/StaffIdToCampId.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ABC737-3ABD-43FE-B468-0F6B0CE51EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{21ABC737-3ABD-43FE-B468-0F6B0CE51EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19ACA6C-1133-46AB-8805-851173AA048F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>staffId</t>
   </si>
@@ -33,10 +33,109 @@
     <t>campId</t>
   </si>
   <si>
-    <t>65a645fbd9a5458bae204ce7fe655a73</t>
-  </si>
-  <si>
-    <t>89923331900f4fe8bae819dfb22f1955</t>
+    <t>dddb3f881c084008bfa6696b4c2b66f0</t>
+  </si>
+  <si>
+    <t>aeebf47a69a24d0e863c39e58066d611</t>
+  </si>
+  <si>
+    <t>2f0773e8c1f647c5a74090400cca7516</t>
+  </si>
+  <si>
+    <t>b6d43c568bb647539135919c8c4eefd0</t>
+  </si>
+  <si>
+    <t>ca69ed25cad2430e982ade6efb608496</t>
+  </si>
+  <si>
+    <t>0c2f901a1f0348b49c9769fad9e1f702</t>
+  </si>
+  <si>
+    <t>3288d570e59b4ef1ac054e85e9f425c3</t>
+  </si>
+  <si>
+    <t>c840388de3004a1480144eb7370695ba</t>
+  </si>
+  <si>
+    <t>644f4770cf684353879c2ad3ea99edd7</t>
+  </si>
+  <si>
+    <t>47314cc237fe4507bc2269fdfc4e9772</t>
+  </si>
+  <si>
+    <t>3c28c12f784448ae9d5f4811a345e286</t>
+  </si>
+  <si>
+    <t>027d823b7ed44ac390eaa7cb17fd2a02</t>
+  </si>
+  <si>
+    <t>29622a1e5fb94719a321562892213981</t>
+  </si>
+  <si>
+    <t>fd24f46687d448a296b6786b791388ed</t>
+  </si>
+  <si>
+    <t>bffcf15328ed4372a865c4dc3f640ab0</t>
+  </si>
+  <si>
+    <t>0de8b74b4e09469d8cf55e0997e6a701</t>
+  </si>
+  <si>
+    <t>27bcba2f97b04d2ca0d1ac3cf965bfd9</t>
+  </si>
+  <si>
+    <t>3c97b2d08b0248d8afbfd6706b9ec1ad</t>
+  </si>
+  <si>
+    <t>b36022d242634e649f4c376ea4626f7b</t>
+  </si>
+  <si>
+    <t>c9b220bbc1e64a8382c22ac0052ae390</t>
+  </si>
+  <si>
+    <t>9f0c6278fc33441a8fc36b7420ff2c07</t>
+  </si>
+  <si>
+    <t>28f4c938cfaa4b3ea9abd87895750a88</t>
+  </si>
+  <si>
+    <t>0423df356e6748d3b7f3e0690d78a8a9</t>
+  </si>
+  <si>
+    <t>08376b4ec41b4756a63e76327e64a94c</t>
+  </si>
+  <si>
+    <t>fcffe2d0a69b4908a3640c18083f84d5</t>
+  </si>
+  <si>
+    <t>a9152a65483e4ba0a7b0d79d47ab74ec</t>
+  </si>
+  <si>
+    <t>039db9e496084ac4bfed88743537bbf6</t>
+  </si>
+  <si>
+    <t>d235cfbacef2457089ac6c10cd44717d</t>
+  </si>
+  <si>
+    <t>05e5e6f46e454764927d10f9575b5dfb</t>
+  </si>
+  <si>
+    <t>bccff4bdb58f4827b2613abf1486e949</t>
+  </si>
+  <si>
+    <t>0bef7fa6725e41c5bd0be19523c55739</t>
+  </si>
+  <si>
+    <t>4a1065c41f8b4b679b087c09895eab82</t>
+  </si>
+  <si>
+    <t>3750072e73a441d89a3f51849b355c9e</t>
+  </si>
+  <si>
+    <t>f731d24c90ea45ff858fffa0ae352327</t>
+  </si>
+  <si>
+    <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
   </si>
 </sst>
 </file>
@@ -90,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +489,150 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
